--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -1,36 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNTT-30\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191BB41-A5CA-4BF0-B759-1025E0704B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11676334-0B8F-43F5-B446-D438CD5C2A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>THÔNG TIN CẬP NHẬP</t>
-  </si>
-  <si>
-    <t>THỜI GIAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Nội dung công việc</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Kết quả thực hiện</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm xe cơ giới MVP</t>
+  </si>
+  <si>
+    <t>F01 - Bảo hiểm xe máy</t>
+  </si>
+  <si>
+    <t>F02 - Bảo hiểm xe ô tô</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm con người PER</t>
+  </si>
+  <si>
+    <t>Chú thích:</t>
+  </si>
+  <si>
+    <t>- Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>- Đang thực hiện</t>
+  </si>
+  <si>
+    <t>- Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>G01 - Bảo hiểm sức khỏe toàn diện</t>
+  </si>
+  <si>
+    <t>G02 - Bảo hiểm con người mức trách nhiệm cao (VNI Care)</t>
+  </si>
+  <si>
+    <t>G03 - Bảo hiểm tai nạn con người</t>
+  </si>
+  <si>
+    <t>G04 - Bảo hiểm tai nạn con người của Cologne Re</t>
+  </si>
+  <si>
+    <t>G05 - Bảo hiểm toàn diện học sinh</t>
+  </si>
+  <si>
+    <t>G06 - Bảo hiểm du lịch trong nước</t>
+  </si>
+  <si>
+    <t>G07 - Bảo hiểm du lịch quốc tế</t>
+  </si>
+  <si>
+    <t>G08 - Bảo hiểm sức khỏe giáo viên</t>
+  </si>
+  <si>
+    <t>G09 - Bảo hiểm tai nạn đối với người lao động</t>
+  </si>
+  <si>
+    <t>G12 - Bảo hiểm chăm sóc sức khỏe cá nhân White Lotus</t>
+  </si>
+  <si>
+    <t>G13 - Bảo hiểm tai nạn hộ sử dụng điện</t>
+  </si>
+  <si>
+    <t>G14 - Bảo hiểm tai nạn con người tại hộ gia đình do cháy chung cư, nhà riêng</t>
+  </si>
+  <si>
+    <t>G15 - Bảo hiểm toàn diện hộ gia đình</t>
+  </si>
+  <si>
+    <t>G16 - Bảo hiểm sức khỏe người vay vốn</t>
+  </si>
+  <si>
+    <t>G17 - Bảo hiểm tai nạn giao thông đường bộ</t>
+  </si>
+  <si>
+    <t>Kế hoạch thiết kế, cắt - ghép giao diện HTML</t>
   </si>
 </sst>
 </file>
@@ -54,15 +146,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,13 +186,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,27 +645,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21">
+        <v>44018</v>
+      </c>
+      <c r="D3" s="21">
+        <v>44029</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21">
+        <v>44032</v>
+      </c>
+      <c r="D6" s="21">
+        <v>44035</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="K13" s="19"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:A21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11676334-0B8F-43F5-B446-D438CD5C2A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36104CED-4DCD-495B-8269-AED8D5F30478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Kế hoạch thiết kế, cắt - ghép giao diện HTML</t>
+  </si>
+  <si>
+    <t>- Cập nhập bản chào bảo hiểm
+- Cập nhập đơn bảo hiểm F02</t>
   </si>
 </sst>
 </file>
@@ -288,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,6 +367,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="53.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -948,32 +958,143 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44036</v>
+      </c>
+      <c r="D22" s="20">
+        <v>44036</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36104CED-4DCD-495B-8269-AED8D5F30478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47937E76-DB3B-445B-94A3-DE38E9DECF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -126,7 +126,14 @@
   </si>
   <si>
     <t>- Cập nhập bản chào bảo hiểm
-- Cập nhập đơn bảo hiểm F02</t>
+- Cập nhập đơn bảo hiểm F02
+- Module quản lý thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>- Màn hình Dashboard (Trang Chủ)
+- Màn hình danh sách đơn, xem đơn, nhập đơn bảo hiểm
+- Màn hình bản chào phí - nhập bản chào bảo hiểm
+- Trang login, 404</t>
   </si>
 </sst>
 </file>
@@ -292,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -357,6 +364,12 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,11 +382,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="53.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -675,14 +709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -708,7 +742,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -727,131 +761,129 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="H4" s="32"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="6" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="H5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="21">
-        <v>44032</v>
-      </c>
-      <c r="D6" s="21">
-        <v>44035</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="25"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="M7" s="18"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21">
+        <v>44032</v>
+      </c>
+      <c r="D9" s="21">
+        <v>44035</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="12" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -859,13 +891,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="K13" s="19"/>
-      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -875,9 +905,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -887,9 +917,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -897,11 +927,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
+      <c r="K16" s="19"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -910,10 +942,10 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
       <c r="B18" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -923,9 +955,9 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -935,9 +967,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -946,10 +978,10 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
       <c r="B21" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -958,50 +990,62 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>3</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="20">
-        <v>44036</v>
-      </c>
-      <c r="D22" s="20">
-        <v>44036</v>
-      </c>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="14">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44036</v>
+      </c>
+      <c r="D25" s="20">
+        <v>44036</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1009,7 +1053,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1017,7 +1061,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1025,7 +1069,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1033,7 +1077,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1041,31 +1085,31 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="12"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1073,7 +1117,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="12"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1081,7 +1125,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1089,18 +1133,42 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="12"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A9:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47937E76-DB3B-445B-94A3-DE38E9DECF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C09D1A2-97D8-41F9-975D-BD19C2096564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,6 +370,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,33 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,14 +709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -761,52 +761,52 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="H4" s="32"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="H4" s="28"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="H5" s="32"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="H5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="30"/>
+      <c r="H6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="12"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -816,7 +816,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="12"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -828,7 +828,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="33">
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -844,7 +844,7 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C09D1A2-97D8-41F9-975D-BD19C2096564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BBD837-B554-4EE6-9D8F-FACF19E14D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -53,16 +53,10 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Nhóm sản phẩm xe cơ giới MVP</t>
-  </si>
-  <si>
     <t>F01 - Bảo hiểm xe máy</t>
   </si>
   <si>
     <t>F02 - Bảo hiểm xe ô tô</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm con người PER</t>
   </si>
   <si>
     <t>Chú thích:</t>
@@ -134,6 +128,87 @@
 - Màn hình danh sách đơn, xem đơn, nhập đơn bảo hiểm
 - Màn hình bản chào phí - nhập bản chào bảo hiểm
 - Trang login, 404</t>
+  </si>
+  <si>
+    <t>B01 - Bảo hiểm hỏa hoạn và các rủi ro đặc biệt</t>
+  </si>
+  <si>
+    <t>B02 - Bảo hiểm mọi rủi ro tài sản</t>
+  </si>
+  <si>
+    <t>B03 - Bảo hiểm công trình kỹ thuật dân dụng hoàn thành</t>
+  </si>
+  <si>
+    <t>B04 - Bảo hiểm mọi rủi ro văn phòng</t>
+  </si>
+  <si>
+    <t>B05 - Bảo hiểm mọi rủi ro nhà ở</t>
+  </si>
+  <si>
+    <t>B06 - Bảo hiểm tiền</t>
+  </si>
+  <si>
+    <t>B07 - Bảo hiểm hư hỏng hàng hóa trong kho lạnh</t>
+  </si>
+  <si>
+    <t>B08 - Bảo hiểm lòng trung thành</t>
+  </si>
+  <si>
+    <t>B09 - Chứng thư bảo lãnh</t>
+  </si>
+  <si>
+    <t>B12 - Bảo hiểm bảng hiệu đèn quảng cáo</t>
+  </si>
+  <si>
+    <t>B16 - Bảo hiểm toàn diện nhà chung cư</t>
+  </si>
+  <si>
+    <t>B17 - Bảo hiểm vườn cây cao su</t>
+  </si>
+  <si>
+    <t>C01 - Bảo hiểm mọi rủi ro trong xây dựng</t>
+  </si>
+  <si>
+    <t>C02 - Bảo hiểm mọi rủi ro trong lắp đặt</t>
+  </si>
+  <si>
+    <t>C03 - Bảo hiểm máy móc thiết bị của chủ thầu</t>
+  </si>
+  <si>
+    <t>C04 - Bảo hiểm đổ vỡ máy móc</t>
+  </si>
+  <si>
+    <t>C05 - Bảo hiểm mất lợi nhuận do đổ vỡ máy móc</t>
+  </si>
+  <si>
+    <t>C06 - Bảo hiểm thiết bị điện tử</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm xe cơ giới (MVP)</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm con người (PER)</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm tài sản (PRO)</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm kĩ thuật (BI)</t>
+  </si>
+  <si>
+    <t>C07 - Bảo hiểm mọi rủi ro máy móc thiết bị cho thuê</t>
+  </si>
+  <si>
+    <t>C08 - Bảo hiểm nồi hơi</t>
+  </si>
+  <si>
+    <t>C09 - Bảo hiểm toàn diện đối với máy móc thiết bị</t>
+  </si>
+  <si>
+    <t>Phát sinh</t>
+  </si>
+  <si>
+    <t>C10 - Bảo hiểm mọi rủi ro trong công nghiệp</t>
   </si>
 </sst>
 </file>
@@ -157,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +260,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,15 +400,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -340,30 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +439,12 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +464,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,40 +806,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -731,438 +848,1771 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34">
+        <v>44018</v>
+      </c>
+      <c r="D3" s="34">
+        <v>44029</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="20"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="20"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="20"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="34">
+        <v>44032</v>
+      </c>
+      <c r="D9" s="34">
+        <v>44035</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="J10" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="21">
-        <v>44018</v>
-      </c>
-      <c r="D3" s="21">
-        <v>44029</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="6" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="J12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="H4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="H5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="H6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="21">
-        <v>44032</v>
-      </c>
-      <c r="D9" s="21">
-        <v>44035</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="12" t="s">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="14">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
+      <c r="A14" s="24"/>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="14">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
+      <c r="A15" s="24"/>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="14">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="12" t="s">
-        <v>20</v>
+      <c r="A16" s="24"/>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="14">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="K16" s="19"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="12" t="s">
-        <v>21</v>
+      <c r="G16" s="1"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="14">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="14">
+      <c r="E18" s="30">
         <v>1</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="12" t="s">
-        <v>23</v>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="14">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="14">
+      <c r="E20" s="30">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="12" t="s">
-        <v>25</v>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="14">
+      <c r="E21" s="30">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="12" t="s">
-        <v>26</v>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="14">
+      <c r="E22" s="30">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="14">
+      <c r="E23" s="30">
         <v>1</v>
       </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="12" t="s">
-        <v>28</v>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="14">
+      <c r="E24" s="30">
         <v>1</v>
       </c>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44036</v>
+      </c>
+      <c r="D25" s="13">
+        <v>44036</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>4</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="44">
+        <v>44039</v>
+      </c>
+      <c r="D26" s="44">
+        <v>44042</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="20">
-        <v>44036</v>
-      </c>
-      <c r="D25" s="20">
-        <v>44036</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="12"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="12"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="12"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="12"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="12"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="12"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="12"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="46">
+        <v>5</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="45">
+        <v>44042</v>
+      </c>
+      <c r="D41" s="45">
+        <v>44047</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="14"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="14"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BBD837-B554-4EE6-9D8F-FACF19E14D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181AAF3-9F04-4F6A-8FDC-D01D46333577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="3075" windowWidth="20370" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>C10 - Bảo hiểm mọi rủi ro trong công nghiệp</t>
+  </si>
+  <si>
+    <t>- Module quản lí xin cấp số hợp đồng</t>
   </si>
 </sst>
 </file>
@@ -454,6 +457,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,66 +527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +812,7 @@
   <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,14 +829,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -848,7 +851,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -859,114 +862,114 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="30">
         <v>44018</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="30">
         <v>44029</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="30">
+      <c r="E4" s="26">
         <v>1</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="20"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="20"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>1</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="20"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>44032</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>44035</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
@@ -977,13 +980,13 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
@@ -994,13 +997,13 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="30">
+      <c r="E12" s="26">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
@@ -1011,52 +1014,52 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="30">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="30">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
@@ -1064,111 +1067,111 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="30">
+      <c r="E18" s="26">
         <v>1</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="30">
+      <c r="E21" s="26">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="30">
+      <c r="E22" s="26">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="30">
+      <c r="E23" s="26">
         <v>1</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="30">
+      <c r="E24" s="26">
         <v>1</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="23">
         <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1180,303 +1183,317 @@
       <c r="D25" s="13">
         <v>44036</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="26">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="23">
         <v>4</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="40">
         <v>44039</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="40">
         <v>44042</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="26">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="26">
+        <v>1</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="26">
+        <v>1</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="26">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="26">
+        <v>1</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="26">
+        <v>1</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="42">
         <v>5</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="41">
         <v>44042</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="41">
         <v>44047</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="31"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
@@ -1485,7 +1502,7 @@
       <c r="B52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
@@ -1494,7 +1511,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
@@ -1503,7 +1520,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
@@ -1512,7 +1529,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="31"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
@@ -1521,7 +1538,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
@@ -1530,7 +1547,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
@@ -1539,7 +1556,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
@@ -1548,7 +1565,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
@@ -1557,7 +1574,7 @@
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
@@ -1566,7 +1583,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="31"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
@@ -1575,7 +1592,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="31"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
@@ -1584,7 +1601,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
@@ -1593,7 +1610,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
@@ -1602,7 +1619,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
@@ -1611,7 +1628,7 @@
       <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
@@ -1620,7 +1637,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
@@ -1629,7 +1646,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="31"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
@@ -1638,7 +1655,7 @@
       <c r="B69" s="10"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
@@ -1647,7 +1664,7 @@
       <c r="B70" s="10"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
@@ -1656,7 +1673,7 @@
       <c r="B71" s="10"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="31"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
@@ -1665,7 +1682,7 @@
       <c r="B72" s="10"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="31"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
@@ -1674,7 +1691,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
@@ -1683,7 +1700,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
@@ -1692,7 +1709,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
@@ -1701,7 +1718,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
@@ -1710,7 +1727,7 @@
       <c r="B77" s="10"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="31"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
@@ -1719,7 +1736,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="31"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
@@ -1728,7 +1745,7 @@
       <c r="B79" s="10"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="31"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
@@ -1737,7 +1754,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="31"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
@@ -1746,7 +1763,7 @@
       <c r="B81" s="10"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="31"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
@@ -1755,7 +1772,7 @@
       <c r="B82" s="10"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="31"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
@@ -1764,7 +1781,7 @@
       <c r="B83" s="10"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="31"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
@@ -1773,7 +1790,7 @@
       <c r="B84" s="10"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="31"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
@@ -1782,7 +1799,7 @@
       <c r="B85" s="10"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="31"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
@@ -1791,7 +1808,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="31"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
@@ -1800,7 +1817,7 @@
       <c r="B87" s="10"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="31"/>
+      <c r="E87" s="27"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
@@ -1809,7 +1826,7 @@
       <c r="B88" s="10"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="31"/>
+      <c r="E88" s="27"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
@@ -1818,7 +1835,7 @@
       <c r="B89" s="10"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="31"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
@@ -1827,7 +1844,7 @@
       <c r="B90" s="10"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="31"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
@@ -1836,7 +1853,7 @@
       <c r="B91" s="10"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="31"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
@@ -1845,7 +1862,7 @@
       <c r="B92" s="10"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="31"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
@@ -1854,7 +1871,7 @@
       <c r="B93" s="10"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
@@ -1863,7 +1880,7 @@
       <c r="B94" s="10"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="31"/>
+      <c r="E94" s="27"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
@@ -1872,7 +1889,7 @@
       <c r="B95" s="10"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="31"/>
+      <c r="E95" s="27"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
@@ -1881,7 +1898,7 @@
       <c r="B96" s="10"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="31"/>
+      <c r="E96" s="27"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
@@ -1890,7 +1907,7 @@
       <c r="B97" s="10"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
@@ -1899,7 +1916,7 @@
       <c r="B98" s="10"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="31"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
@@ -1908,7 +1925,7 @@
       <c r="B99" s="10"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
@@ -1917,7 +1934,7 @@
       <c r="B100" s="10"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="31"/>
+      <c r="E100" s="27"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
@@ -1926,7 +1943,7 @@
       <c r="B101" s="10"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="31"/>
+      <c r="E101" s="27"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
@@ -1935,7 +1952,7 @@
       <c r="B102" s="10"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="31"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
@@ -1944,7 +1961,7 @@
       <c r="B103" s="10"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="31"/>
+      <c r="E103" s="27"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
@@ -1953,7 +1970,7 @@
       <c r="B104" s="10"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="31"/>
+      <c r="E104" s="27"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
@@ -1962,7 +1979,7 @@
       <c r="B105" s="10"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="31"/>
+      <c r="E105" s="27"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
@@ -1971,7 +1988,7 @@
       <c r="B106" s="10"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="31"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
@@ -1980,7 +1997,7 @@
       <c r="B107" s="10"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="31"/>
+      <c r="E107" s="27"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
@@ -1989,7 +2006,7 @@
       <c r="B108" s="10"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="31"/>
+      <c r="E108" s="27"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
@@ -1998,7 +2015,7 @@
       <c r="B109" s="10"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="27"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
@@ -2007,7 +2024,7 @@
       <c r="B110" s="10"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="31"/>
+      <c r="E110" s="27"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
@@ -2016,7 +2033,7 @@
       <c r="B111" s="10"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="31"/>
+      <c r="E111" s="27"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
@@ -2025,7 +2042,7 @@
       <c r="B112" s="10"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="31"/>
+      <c r="E112" s="27"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
@@ -2034,7 +2051,7 @@
       <c r="B113" s="10"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="31"/>
+      <c r="E113" s="27"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
@@ -2043,7 +2060,7 @@
       <c r="B114" s="10"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="31"/>
+      <c r="E114" s="27"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
@@ -2052,7 +2069,7 @@
       <c r="B115" s="10"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="31"/>
+      <c r="E115" s="27"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
@@ -2061,7 +2078,7 @@
       <c r="B116" s="10"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="31"/>
+      <c r="E116" s="27"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
@@ -2070,7 +2087,7 @@
       <c r="B117" s="10"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="31"/>
+      <c r="E117" s="27"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
@@ -2079,7 +2096,7 @@
       <c r="B118" s="10"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="31"/>
+      <c r="E118" s="27"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
@@ -2088,7 +2105,7 @@
       <c r="B119" s="10"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="31"/>
+      <c r="E119" s="27"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
@@ -2097,7 +2114,7 @@
       <c r="B120" s="10"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="31"/>
+      <c r="E120" s="27"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
@@ -2106,7 +2123,7 @@
       <c r="B121" s="10"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="31"/>
+      <c r="E121" s="27"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
@@ -2115,7 +2132,7 @@
       <c r="B122" s="10"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="31"/>
+      <c r="E122" s="27"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
@@ -2124,7 +2141,7 @@
       <c r="B123" s="10"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="27"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
@@ -2133,7 +2150,7 @@
       <c r="B124" s="10"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="31"/>
+      <c r="E124" s="27"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
@@ -2142,7 +2159,7 @@
       <c r="B125" s="10"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="31"/>
+      <c r="E125" s="27"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
@@ -2151,7 +2168,7 @@
       <c r="B126" s="10"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="31"/>
+      <c r="E126" s="27"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
@@ -2160,7 +2177,7 @@
       <c r="B127" s="10"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="31"/>
+      <c r="E127" s="27"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
@@ -2169,7 +2186,7 @@
       <c r="B128" s="10"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="27"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
@@ -2178,7 +2195,7 @@
       <c r="B129" s="10"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="31"/>
+      <c r="E129" s="27"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
@@ -2187,7 +2204,7 @@
       <c r="B130" s="10"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="31"/>
+      <c r="E130" s="27"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
@@ -2196,7 +2213,7 @@
       <c r="B131" s="10"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="31"/>
+      <c r="E131" s="27"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
@@ -2205,7 +2222,7 @@
       <c r="B132" s="10"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="31"/>
+      <c r="E132" s="27"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
@@ -2214,7 +2231,7 @@
       <c r="B133" s="10"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="31"/>
+      <c r="E133" s="27"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
@@ -2223,7 +2240,7 @@
       <c r="B134" s="10"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="31"/>
+      <c r="E134" s="27"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
@@ -2232,7 +2249,7 @@
       <c r="B135" s="10"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="31"/>
+      <c r="E135" s="27"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
@@ -2241,7 +2258,7 @@
       <c r="B136" s="10"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="31"/>
+      <c r="E136" s="27"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
@@ -2250,7 +2267,7 @@
       <c r="B137" s="10"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="31"/>
+      <c r="E137" s="27"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
@@ -2259,7 +2276,7 @@
       <c r="B138" s="10"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="27"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
@@ -2268,7 +2285,7 @@
       <c r="B139" s="10"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="27"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
@@ -2277,7 +2294,7 @@
       <c r="B140" s="10"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="27"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
@@ -2286,7 +2303,7 @@
       <c r="B141" s="10"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="31"/>
+      <c r="E141" s="27"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
@@ -2295,7 +2312,7 @@
       <c r="B142" s="10"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="31"/>
+      <c r="E142" s="27"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
@@ -2304,7 +2321,7 @@
       <c r="B143" s="10"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="31"/>
+      <c r="E143" s="27"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
@@ -2313,7 +2330,7 @@
       <c r="B144" s="10"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="31"/>
+      <c r="E144" s="27"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
@@ -2322,7 +2339,7 @@
       <c r="B145" s="10"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="31"/>
+      <c r="E145" s="27"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
@@ -2331,7 +2348,7 @@
       <c r="B146" s="10"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="31"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
@@ -2340,7 +2357,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="27"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
@@ -2349,7 +2366,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="31"/>
+      <c r="E148" s="27"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
@@ -2358,7 +2375,7 @@
       <c r="B149" s="10"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="31"/>
+      <c r="E149" s="27"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
@@ -2367,7 +2384,7 @@
       <c r="B150" s="10"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="31"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
@@ -2376,7 +2393,7 @@
       <c r="B151" s="10"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="31"/>
+      <c r="E151" s="27"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
@@ -2385,7 +2402,7 @@
       <c r="B152" s="10"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="31"/>
+      <c r="E152" s="27"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
@@ -2394,7 +2411,7 @@
       <c r="B153" s="10"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="31"/>
+      <c r="E153" s="27"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
@@ -2403,7 +2420,7 @@
       <c r="B154" s="10"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="31"/>
+      <c r="E154" s="27"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
@@ -2412,7 +2429,7 @@
       <c r="B155" s="10"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="31"/>
+      <c r="E155" s="27"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
@@ -2421,7 +2438,7 @@
       <c r="B156" s="10"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="31"/>
+      <c r="E156" s="27"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
@@ -2430,7 +2447,7 @@
       <c r="B157" s="10"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="31"/>
+      <c r="E157" s="27"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
@@ -2439,7 +2456,7 @@
       <c r="B158" s="10"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="31"/>
+      <c r="E158" s="27"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
@@ -2448,7 +2465,7 @@
       <c r="B159" s="10"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="31"/>
+      <c r="E159" s="27"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
@@ -2457,7 +2474,7 @@
       <c r="B160" s="10"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="31"/>
+      <c r="E160" s="27"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
@@ -2466,7 +2483,7 @@
       <c r="B161" s="10"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="31"/>
+      <c r="E161" s="27"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
@@ -2475,7 +2492,7 @@
       <c r="B162" s="10"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="31"/>
+      <c r="E162" s="27"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
@@ -2484,7 +2501,7 @@
       <c r="B163" s="10"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="31"/>
+      <c r="E163" s="27"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
@@ -2493,7 +2510,7 @@
       <c r="B164" s="10"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="31"/>
+      <c r="E164" s="27"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
@@ -2502,7 +2519,7 @@
       <c r="B165" s="10"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="31"/>
+      <c r="E165" s="27"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
@@ -2511,7 +2528,7 @@
       <c r="B166" s="10"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="31"/>
+      <c r="E166" s="27"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
@@ -2520,7 +2537,7 @@
       <c r="B167" s="10"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="31"/>
+      <c r="E167" s="27"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
@@ -2529,7 +2546,7 @@
       <c r="B168" s="10"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="31"/>
+      <c r="E168" s="27"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
@@ -2538,7 +2555,7 @@
       <c r="B169" s="10"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="31"/>
+      <c r="E169" s="27"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
@@ -2547,7 +2564,7 @@
       <c r="B170" s="10"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="31"/>
+      <c r="E170" s="27"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
@@ -2556,7 +2573,7 @@
       <c r="B171" s="10"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="31"/>
+      <c r="E171" s="27"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
@@ -2565,7 +2582,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="31"/>
+      <c r="E172" s="27"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
@@ -2574,7 +2591,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="31"/>
+      <c r="E173" s="27"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
@@ -2583,7 +2600,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="31"/>
+      <c r="E174" s="27"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
@@ -2592,7 +2609,7 @@
       <c r="B175" s="10"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="31"/>
+      <c r="E175" s="27"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
@@ -2601,7 +2618,7 @@
       <c r="B176" s="10"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="31"/>
+      <c r="E176" s="27"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
@@ -2610,7 +2627,7 @@
       <c r="B177" s="10"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="31"/>
+      <c r="E177" s="27"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181AAF3-9F04-4F6A-8FDC-D01D46333577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40641D9-69A0-458B-82D4-9FE0F4F419BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3075" windowWidth="20370" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -212,12 +212,25 @@
   </si>
   <si>
     <t>- Module quản lí xin cấp số hợp đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cập nhập chỉnh sửa file base: datepicker, jqueryUI, fontawesome
+- Cập nhập giao diện </t>
+  </si>
+  <si>
+    <t>Cập nhập:
+Đối tượng bảo hiểm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,9 +491,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -508,26 +518,44 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A41" sqref="A41:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,21 +850,21 @@
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -862,24 +890,24 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="48">
         <v>44018</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="48">
         <v>44029</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -894,7 +922,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -909,7 +937,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -924,7 +952,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -933,7 +961,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -942,28 +970,28 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="41">
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="48">
         <v>44032</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="48">
         <v>44035</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -980,7 +1008,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1025,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1042,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1055,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1068,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1081,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1066,8 +1094,8 @@
       <c r="G16" s="1"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1078,9 +1106,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1092,8 +1121,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1105,8 +1134,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1147,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
@@ -1126,13 +1155,15 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="26">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1144,8 +1175,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1157,8 +1188,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1170,18 +1201,18 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="13">
-        <v>44036</v>
-      </c>
-      <c r="D25" s="13">
-        <v>44036</v>
+      <c r="C25" s="49">
+        <v>44046</v>
+      </c>
+      <c r="D25" s="49">
+        <v>44046</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
@@ -1189,24 +1220,24 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>4</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="40">
-        <v>44039</v>
-      </c>
-      <c r="D26" s="40">
-        <v>44042</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="50">
+        <v>44046</v>
+      </c>
+      <c r="D26" s="50">
+        <v>44046</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
         <v>30</v>
@@ -1219,7 +1250,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
         <v>31</v>
@@ -1232,7 +1263,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
         <v>32</v>
@@ -1245,7 +1276,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
         <v>33</v>
@@ -1258,7 +1289,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24" t="s">
         <v>34</v>
@@ -1271,8 +1302,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
       <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
@@ -1283,7 +1314,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
@@ -1294,7 +1325,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
@@ -1305,7 +1336,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
@@ -1316,7 +1347,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1358,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1369,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
@@ -1361,69 +1392,69 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="10"/>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="26">
+        <v>1</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
-        <v>5</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="41">
-        <v>44042</v>
-      </c>
-      <c r="D41" s="41">
-        <v>44047</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="39">
+        <v>5</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="46">
+        <v>44042</v>
+      </c>
+      <c r="D43" s="45">
+        <v>44047</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="10" t="s">
-        <v>44</v>
+      <c r="A44" s="39"/>
+      <c r="B44" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="27"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="10" t="s">
-        <v>45</v>
+      <c r="A45" s="39"/>
+      <c r="B45" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1432,9 +1463,9 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1443,9 +1474,9 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1454,9 +1485,9 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1465,9 +1496,9 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1476,9 +1507,9 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1487,9 +1518,9 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1498,8 +1529,10 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="27"/>
@@ -1507,8 +1540,10 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="27"/>
@@ -2631,11 +2666,27 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="14"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="14"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A8"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40641D9-69A0-458B-82D4-9FE0F4F419BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833B4CD-927E-4D01-9CE7-E0CD34A98A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="870" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -220,6 +220,9 @@
   <si>
     <t>Cập nhập:
 Đối tượng bảo hiểm</t>
+  </si>
+  <si>
+    <t>- Màn hình duyệt đơn bảo hiểm</t>
   </si>
 </sst>
 </file>
@@ -227,9 +230,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -521,40 +524,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,14 +860,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -890,24 +893,24 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="46">
         <v>44018</v>
       </c>
-      <c r="D3" s="48">
-        <v>44029</v>
+      <c r="D3" s="46">
+        <v>44032</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -952,7 +955,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -961,7 +964,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -970,17 +973,17 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>44032</v>
       </c>
-      <c r="D9" s="48">
-        <v>44035</v>
+      <c r="D9" s="46">
+        <v>44039</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -991,7 +994,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1011,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1028,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1058,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1071,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1098,7 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1106,10 +1109,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="47"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1125,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1138,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1148,12 +1151,16 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="47">
+        <v>44040</v>
+      </c>
+      <c r="D21" s="47">
+        <v>44040</v>
+      </c>
       <c r="E21" s="26">
         <v>0.5</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1183,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1196,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1208,11 +1215,11 @@
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49">
-        <v>44046</v>
-      </c>
-      <c r="D25" s="49">
-        <v>44046</v>
+      <c r="C25" s="47">
+        <v>44039</v>
+      </c>
+      <c r="D25" s="47">
+        <v>44043</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
@@ -1227,11 +1234,11 @@
       <c r="B26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="50">
-        <v>44046</v>
-      </c>
-      <c r="D26" s="50">
-        <v>44046</v>
+      <c r="C26" s="44">
+        <v>44042</v>
+      </c>
+      <c r="D26" s="48">
+        <v>44049</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -1384,8 +1391,12 @@
       <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="13">
+        <v>44047</v>
+      </c>
+      <c r="D39" s="13">
+        <v>44047</v>
+      </c>
       <c r="E39" s="26">
         <v>1</v>
       </c>
@@ -1397,8 +1408,12 @@
       <c r="B40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="13">
+        <v>44048</v>
+      </c>
+      <c r="D40" s="13">
+        <v>44048</v>
+      </c>
       <c r="E40" s="26">
         <v>1</v>
       </c>
@@ -1406,11 +1421,19 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="51"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="13">
+        <v>44049</v>
+      </c>
+      <c r="D41" s="13">
+        <v>44049</v>
+      </c>
+      <c r="E41" s="49">
+        <v>1</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
@@ -1430,12 +1453,8 @@
       <c r="B43" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="46">
-        <v>44042</v>
-      </c>
-      <c r="D43" s="45">
-        <v>44047</v>
-      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="34"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833B4CD-927E-4D01-9CE7-E0CD34A98A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE27DED-9406-4EDE-8B18-869564093D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="870" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>- Màn hình duyệt đơn bảo hiểm</t>
+  </si>
+  <si>
+    <t>- Cập nhập màn hình Login, Js Perfect scrollbar</t>
+  </si>
+  <si>
+    <t>- Cập nhập màn hình Cấp đơn</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +256,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +297,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -521,9 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -532,9 +535,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -557,8 +557,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,14 +884,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -893,16 +917,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>44018</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="44">
         <v>44032</v>
       </c>
       <c r="E3" s="30"/>
@@ -910,7 +934,7 @@
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -925,7 +949,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -940,7 +964,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -955,7 +979,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -964,7 +988,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -973,16 +997,16 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>44032</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="44">
         <v>44039</v>
       </c>
       <c r="E9" s="33"/>
@@ -994,7 +1018,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1035,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1052,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1069,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1082,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1095,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1108,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1122,7 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1109,10 +1133,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1149,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1138,7 +1162,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1151,14 +1175,14 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="45">
         <v>44040</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="45">
         <v>44040</v>
       </c>
       <c r="E21" s="26">
@@ -1170,7 +1194,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1183,7 +1207,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1220,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1215,10 +1239,10 @@
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="45">
         <v>44039</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="45">
         <v>44043</v>
       </c>
       <c r="E25" s="26">
@@ -1234,10 +1258,10 @@
       <c r="B26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>44042</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="46">
         <v>44049</v>
       </c>
       <c r="E26" s="36"/>
@@ -1310,7 +1334,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
@@ -1321,7 +1345,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
@@ -1332,7 +1356,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
@@ -1343,7 +1367,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
@@ -1354,7 +1378,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +1389,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1400,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
@@ -1404,7 +1428,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="9" t="s">
         <v>58</v>
       </c>
@@ -1421,7 +1445,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="9" t="s">
         <v>60</v>
       </c>
@@ -1431,72 +1455,80 @@
       <c r="D41" s="13">
         <v>44049</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="47">
         <v>1</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="13">
+        <v>44050</v>
+      </c>
+      <c r="D42" s="13">
+        <v>44050</v>
+      </c>
+      <c r="E42" s="47">
+        <v>1</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>5</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="14"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="27"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="55">
+        <v>5</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="42">
+        <v>44053</v>
+      </c>
+      <c r="D45" s="42">
+        <v>44057</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="54">
+        <v>44053</v>
+      </c>
+      <c r="D46" s="54">
+        <v>44053</v>
+      </c>
       <c r="E46" s="27"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="56"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="27"/>
@@ -1504,10 +1536,8 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="56"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="27"/>
@@ -1515,9 +1545,9 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="10" t="s">
-        <v>47</v>
+      <c r="A49" s="56"/>
+      <c r="B49" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1526,20 +1556,20 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="10" t="s">
-        <v>52</v>
+      <c r="A50" s="56"/>
+      <c r="B50" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="10" t="s">
-        <v>53</v>
+      <c r="A51" s="56"/>
+      <c r="B51" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1548,9 +1578,9 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1559,9 +1589,9 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1570,8 +1600,10 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="27"/>
@@ -1579,8 +1611,10 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="27"/>
@@ -1588,8 +1622,10 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="27"/>
@@ -1597,8 +1633,10 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="27"/>
@@ -1606,8 +1644,10 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="27"/>
@@ -1615,8 +1655,10 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="27"/>
@@ -1624,7 +1666,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1633,7 +1675,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1642,7 +1684,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2703,6 +2745,24 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="14"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE27DED-9406-4EDE-8B18-869564093D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF325749-B318-4C10-90DD-F14B95EBE903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2655" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,14 +884,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1334,7 +1334,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="9" t="s">
         <v>60</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="9" t="s">
         <v>61</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="9"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -1497,7 +1497,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="55">
+      <c r="A45" s="54">
         <v>5</v>
       </c>
       <c r="B45" s="38"/>
@@ -1512,14 +1512,14 @@
       <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="53">
         <v>44053</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="53">
         <v>44053</v>
       </c>
       <c r="E46" s="27"/>
@@ -1527,7 +1527,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1536,7 +1536,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1545,8 +1545,8 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="1"/>
@@ -1556,18 +1556,18 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="53"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="9" t="s">
         <v>43</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="10" t="s">
         <v>44</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="10" t="s">
         <v>46</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="10" t="s">
         <v>47</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="10" t="s">
         <v>52</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="10" t="s">
         <v>53</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="10" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1675,7 +1675,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1684,7 +1684,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF325749-B318-4C10-90DD-F14B95EBE903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6A446-E371-469D-9021-5F336E8559D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="2655" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -166,24 +166,6 @@
     <t>B17 - Bảo hiểm vườn cây cao su</t>
   </si>
   <si>
-    <t>C01 - Bảo hiểm mọi rủi ro trong xây dựng</t>
-  </si>
-  <si>
-    <t>C02 - Bảo hiểm mọi rủi ro trong lắp đặt</t>
-  </si>
-  <si>
-    <t>C03 - Bảo hiểm máy móc thiết bị của chủ thầu</t>
-  </si>
-  <si>
-    <t>C04 - Bảo hiểm đổ vỡ máy móc</t>
-  </si>
-  <si>
-    <t>C05 - Bảo hiểm mất lợi nhuận do đổ vỡ máy móc</t>
-  </si>
-  <si>
-    <t>C06 - Bảo hiểm thiết bị điện tử</t>
-  </si>
-  <si>
     <t>Nhóm sản phẩm xe cơ giới (MVP)</t>
   </si>
   <si>
@@ -193,22 +175,7 @@
     <t>Nhóm sản phẩm tài sản (PRO)</t>
   </si>
   <si>
-    <t>Nhóm sản phẩm kĩ thuật (BI)</t>
-  </si>
-  <si>
-    <t>C07 - Bảo hiểm mọi rủi ro máy móc thiết bị cho thuê</t>
-  </si>
-  <si>
-    <t>C08 - Bảo hiểm nồi hơi</t>
-  </si>
-  <si>
-    <t>C09 - Bảo hiểm toàn diện đối với máy móc thiết bị</t>
-  </si>
-  <si>
     <t>Phát sinh</t>
-  </si>
-  <si>
-    <t>C10 - Bảo hiểm mọi rủi ro trong công nghiệp</t>
   </si>
   <si>
     <t>- Module quản lí xin cấp số hợp đồng</t>
@@ -229,6 +196,9 @@
   </si>
   <si>
     <t>- Cập nhập màn hình Cấp đơn</t>
+  </si>
+  <si>
+    <t>- Cập nhập màn hình upload file</t>
   </si>
 </sst>
 </file>
@@ -560,15 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -583,6 +544,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,14 +854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -910,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -921,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="44">
         <v>44018</v>
@@ -1001,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="44">
         <v>44032</v>
@@ -1189,7 +1159,7 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1256,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="42">
         <v>44042</v>
@@ -1322,104 +1292,132 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44047</v>
+      </c>
+      <c r="D31" s="13">
+        <v>44047</v>
+      </c>
       <c r="E31" s="26">
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="27"/>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44048</v>
+      </c>
+      <c r="D32" s="13">
+        <v>44048</v>
+      </c>
+      <c r="E32" s="26">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="13">
+        <v>44049</v>
+      </c>
+      <c r="D33" s="13">
+        <v>44049</v>
+      </c>
+      <c r="E33" s="47">
+        <v>1</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="C34" s="13">
+        <v>44050</v>
+      </c>
+      <c r="D34" s="13">
+        <v>44050</v>
+      </c>
+      <c r="E34" s="47">
+        <v>1</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A36" s="14"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="51">
+        <v>5</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="42">
+        <v>44053</v>
+      </c>
+      <c r="D37" s="42">
+        <v>44057</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C38" s="57">
+        <v>44053</v>
+      </c>
+      <c r="D38" s="57">
+        <v>44053</v>
+      </c>
+      <c r="E38" s="26">
+        <v>1</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="13">
-        <v>44047</v>
-      </c>
-      <c r="D39" s="13">
-        <v>44047</v>
+        <v>52</v>
+      </c>
+      <c r="C39" s="57">
+        <v>44054</v>
+      </c>
+      <c r="D39" s="57">
+        <v>44054</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
@@ -1427,16 +1425,16 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="13">
-        <v>44048</v>
-      </c>
-      <c r="D40" s="13">
-        <v>44048</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="57">
+        <v>44055</v>
+      </c>
+      <c r="D40" s="57">
+        <v>44056</v>
       </c>
       <c r="E40" s="26">
         <v>1</v>
@@ -1445,98 +1443,98 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="13">
-        <v>44049</v>
-      </c>
-      <c r="D41" s="13">
-        <v>44049</v>
-      </c>
-      <c r="E41" s="47">
+      <c r="A41" s="56"/>
+      <c r="B41" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="26">
         <v>1</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="13">
-        <v>44050</v>
-      </c>
-      <c r="D42" s="13">
-        <v>44050</v>
-      </c>
-      <c r="E42" s="47">
+      <c r="A42" s="56"/>
+      <c r="B42" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="26">
         <v>1</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="47"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="26">
+        <v>1</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="26">
+        <v>1</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
-        <v>5</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="42">
-        <v>44053</v>
-      </c>
-      <c r="D45" s="42">
-        <v>44057</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="26">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="53">
-        <v>44053</v>
-      </c>
-      <c r="D46" s="53">
-        <v>44053</v>
-      </c>
-      <c r="E46" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="26">
+        <v>1</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1545,10 +1543,8 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="50" t="s">
-        <v>51</v>
-      </c>
+      <c r="A49" s="52"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="27"/>
@@ -1556,21 +1552,17 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A50" s="52"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="52"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A51" s="52"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="27"/>
@@ -1578,10 +1570,8 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="A52" s="52"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="27"/>
@@ -1589,10 +1579,8 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="A53" s="52"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="27"/>
@@ -1600,10 +1588,8 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="A54" s="53"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="27"/>
@@ -1611,10 +1597,8 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A55" s="14"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="27"/>
@@ -1622,10 +1606,8 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A56" s="14"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="27"/>
@@ -1633,10 +1615,8 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="A57" s="14"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="27"/>
@@ -1644,10 +1624,8 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A58" s="14"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="27"/>
@@ -1655,10 +1633,8 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="A59" s="14"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="27"/>
@@ -1666,7 +1642,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1675,7 +1651,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1684,7 +1660,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2691,78 +2667,6 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6A446-E371-469D-9021-5F336E8559D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB8FBC5-CFC7-4823-8E41-0CF196789941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="2655" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>- Cập nhập màn hình upload file</t>
+  </si>
+  <si>
+    <t>Nhóm bảo hiểm hàng hoá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>- E01 - Bảo hiểm hàng hoá xuất nhập khẩu</t>
+  </si>
+  <si>
+    <t>- E02 - Bảo hiểm hàng hoá vận chuyển nội địa</t>
+  </si>
+  <si>
+    <t>- E06 - Bảo hiểm trách nhiệm giao nhận tổng hợp</t>
   </si>
 </sst>
 </file>
@@ -381,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -533,26 +548,29 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,14 +872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1377,7 +1395,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="51">
+      <c r="A37" s="57">
         <v>5</v>
       </c>
       <c r="B37" s="38"/>
@@ -1392,14 +1410,14 @@
       <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="55">
         <v>44053</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="55">
         <v>44053</v>
       </c>
       <c r="E38" s="26">
@@ -1409,14 +1427,14 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="55">
         <v>44054</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="55">
         <v>44054</v>
       </c>
       <c r="E39" s="26">
@@ -1426,14 +1444,14 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="55">
         <v>44055</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="55">
         <v>44056</v>
       </c>
       <c r="E40" s="26">
@@ -1443,7 +1461,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="24" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +1474,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="24" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1487,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
@@ -1482,8 +1500,8 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="53" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="1"/>
@@ -1495,7 +1513,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -1508,7 +1526,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
@@ -1521,7 +1539,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
@@ -1534,26 +1552,42 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="51">
+        <v>6</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="42">
+        <v>44060</v>
+      </c>
+      <c r="D48" s="42">
+        <v>44064</v>
+      </c>
       <c r="E48" s="27"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="27"/>
+      <c r="E49" s="26">
+        <v>1</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="27"/>
@@ -1561,8 +1595,10 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="27"/>
@@ -1570,7 +1606,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1579,7 +1615,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1588,7 +1624,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB8FBC5-CFC7-4823-8E41-0CF196789941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE3292-5AF2-4D3E-8806-4497CEB3A41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2655" windowWidth="24855" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -201,19 +201,52 @@
     <t>- Cập nhập màn hình upload file</t>
   </si>
   <si>
-    <t>Nhóm bảo hiểm hàng hoá</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>- E01 - Bảo hiểm hàng hoá xuất nhập khẩu</t>
-  </si>
-  <si>
-    <t>- E02 - Bảo hiểm hàng hoá vận chuyển nội địa</t>
-  </si>
-  <si>
-    <t>- E06 - Bảo hiểm trách nhiệm giao nhận tổng hợp</t>
+    <t>Nhóm bảo hiểm hàng hoá (COM)</t>
+  </si>
+  <si>
+    <t>E01 - Bảo hiểm hàng hoá xuất nhập khẩu</t>
+  </si>
+  <si>
+    <t>E02 - Bảo hiểm hàng hoá vận chuyển nội địa</t>
+  </si>
+  <si>
+    <t>E06 - Bảo hiểm trách nhiệm giao nhận tổng hợp</t>
+  </si>
+  <si>
+    <t>C01 - Bảo hiểm mọi rủi ro trong xây dựng</t>
+  </si>
+  <si>
+    <t>C02 - Bảo hiểm mọi rủi ro trong lắp đặt</t>
+  </si>
+  <si>
+    <t>C03 - Bảo hiểm máy móc thiết bị của chủ thầu</t>
+  </si>
+  <si>
+    <t>C04 - Bảo hiểm đổ vỡ máy móc</t>
+  </si>
+  <si>
+    <t>C05 - Bảo hiểm mất lợi nhuận do đổ vỡ máy móc</t>
+  </si>
+  <si>
+    <t>C06 - Bảo hiểm thiết bị điện tử</t>
+  </si>
+  <si>
+    <t>C07 - Bảo hiểm mọi rủi ro máy móc thiết bị cho thuê</t>
+  </si>
+  <si>
+    <t>C08 - Bảo hiểm nồi hơi</t>
+  </si>
+  <si>
+    <t>C09 - Bảo hiểm toàn diện đối với máy móc thiết bị</t>
+  </si>
+  <si>
+    <t>Nhóm bảo hiểm kĩ thuật (BI)</t>
+  </si>
+  <si>
+    <t>C10 - Bảo hiểm mọi rủi ro trong công nghiệp</t>
   </si>
 </sst>
 </file>
@@ -248,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +602,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,14 +911,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1395,7 +1434,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
+      <c r="A37" s="56">
         <v>5</v>
       </c>
       <c r="B37" s="38"/>
@@ -1552,11 +1591,11 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="51">
+      <c r="A48" s="54">
         <v>6</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>53</v>
+      <c r="B48" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="C48" s="42">
         <v>44060</v>
@@ -1570,7 +1609,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>55</v>
@@ -1584,39 +1623,47 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="26">
+        <v>1</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="26">
+        <v>1</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="27"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="27"/>
@@ -1625,7 +1672,9 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="52"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="27"/>
@@ -1634,7 +1683,9 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="27"/>
@@ -1643,7 +1694,9 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="27"/>
@@ -1652,7 +1705,9 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="27"/>
@@ -1661,7 +1716,9 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="27"/>
@@ -1670,7 +1727,9 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="27"/>
@@ -1679,7 +1738,9 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="27"/>
@@ -1688,7 +1749,9 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="27"/>
@@ -1697,7 +1760,9 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="27"/>
@@ -2708,6 +2773,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE3292-5AF2-4D3E-8806-4497CEB3A41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1797E6-FE5C-4644-9A35-D21297A390C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>C10 - Bảo hiểm mọi rủi ro trong công nghiệp</t>
+  </si>
+  <si>
+    <t>Giám định bồi thường</t>
+  </si>
+  <si>
+    <t>- Màn hình thêm mới đơn bồi thường</t>
+  </si>
+  <si>
+    <t>- Lập biên bản giám định</t>
+  </si>
+  <si>
+    <t>- Lập phương án sửa chữa</t>
+  </si>
+  <si>
+    <t>- Cập nhập tờ trình bồi thường</t>
+  </si>
+  <si>
+    <t>- Cập nhập thông báo bồi thường</t>
+  </si>
+  <si>
+    <t>- Chức năng In ấn</t>
   </si>
 </sst>
 </file>
@@ -258,7 +279,7 @@
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -346,19 +380,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -435,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,35 +530,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,71 +569,77 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,14 +941,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -944,16 +974,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="41">
         <v>44018</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <v>44032</v>
       </c>
       <c r="E3" s="30"/>
@@ -961,7 +991,7 @@
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -976,7 +1006,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1021,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1036,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1015,7 +1045,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1024,16 +1054,16 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="57">
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="41">
         <v>44032</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>44039</v>
       </c>
       <c r="E9" s="33"/>
@@ -1045,7 +1075,7 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1092,7 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1109,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1126,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1139,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1152,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1165,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1179,7 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1160,10 +1190,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1206,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1189,7 +1219,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1202,14 +1232,14 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="42">
         <v>44040</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <v>44040</v>
       </c>
       <c r="E21" s="26">
@@ -1221,7 +1251,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1264,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1277,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1266,10 +1296,10 @@
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="42">
         <v>44039</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="42">
         <v>44043</v>
       </c>
       <c r="E25" s="26">
@@ -1279,16 +1309,16 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="57">
         <v>4</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="39">
         <v>44042</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="43">
         <v>44049</v>
       </c>
       <c r="E26" s="36"/>
@@ -1382,7 +1412,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
@@ -1392,14 +1422,14 @@
       <c r="D33" s="13">
         <v>44049</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="44">
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="9" t="s">
         <v>50</v>
       </c>
@@ -1409,18 +1439,18 @@
       <c r="D34" s="13">
         <v>44050</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="44">
         <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="9"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="47"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
@@ -1434,14 +1464,14 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+      <c r="A37" s="57">
         <v>5</v>
       </c>
       <c r="B37" s="38"/>
-      <c r="C37" s="42">
+      <c r="C37" s="39">
         <v>44053</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="39">
         <v>44057</v>
       </c>
       <c r="E37" s="33"/>
@@ -1449,14 +1479,14 @@
       <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="48">
         <v>44053</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="48">
         <v>44053</v>
       </c>
       <c r="E38" s="26">
@@ -1466,14 +1496,14 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="48">
         <v>44054</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="48">
         <v>44054</v>
       </c>
       <c r="E39" s="26">
@@ -1483,14 +1513,14 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="48">
         <v>44055</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="48">
         <v>44056</v>
       </c>
       <c r="E40" s="26">
@@ -1500,7 +1530,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="24" t="s">
         <v>35</v>
       </c>
@@ -1513,12 +1543,12 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="50"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="26">
         <v>1</v>
       </c>
@@ -1526,7 +1556,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
@@ -1539,8 +1569,8 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="1"/>
@@ -1552,7 +1582,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -1565,7 +1595,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
@@ -1578,7 +1608,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
@@ -1591,24 +1621,24 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="54">
+      <c r="A48" s="57">
         <v>6</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="39">
         <v>44060</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="53">
         <v>44064</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -1623,7 +1653,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
@@ -1636,7 +1666,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="9" t="s">
         <v>57</v>
       </c>
@@ -1649,84 +1679,98 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="26">
+        <v>1</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="26">
+        <v>1</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="26">
+        <v>1</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="26">
+        <v>1</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="26">
+        <v>1</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="26">
+        <v>1</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="9" t="s">
         <v>64</v>
       </c>
@@ -1737,7 +1781,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
@@ -1748,7 +1792,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1759,7 +1803,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1770,26 +1814,40 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="A63" s="57">
+        <v>7</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="59">
+        <v>44066</v>
+      </c>
+      <c r="D63" s="59">
+        <v>44071</v>
+      </c>
+      <c r="E63" s="60"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="26">
+        <v>0.9</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="10"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="27"/>
@@ -1797,8 +1855,10 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="27"/>
@@ -1806,8 +1866,10 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="27"/>
@@ -1815,8 +1877,10 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="10"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="27"/>
@@ -1824,8 +1888,10 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="27"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1797E6-FE5C-4644-9A35-D21297A390C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CC599-83F7-4F1C-A88D-790C8B5FC9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>- Chức năng In ấn</t>
+  </si>
+  <si>
+    <t>- Quá trình giải quyết khiếu nại bồi thường</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -605,41 +608,44 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,14 +947,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -974,7 +980,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1045,7 +1051,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1054,7 +1060,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -1277,7 +1283,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1315,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -1446,7 +1452,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="9"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1464,7 +1470,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
+      <c r="A37" s="56">
         <v>5</v>
       </c>
       <c r="B37" s="38"/>
@@ -1621,7 +1627,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
+      <c r="A48" s="56">
         <v>6</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -1630,12 +1636,12 @@
       <c r="C48" s="39">
         <v>44060</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>44064</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
@@ -1705,7 +1711,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="9" t="s">
         <v>59</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="9" t="s">
         <v>64</v>
       </c>
@@ -1781,7 +1787,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1798,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1803,7 +1809,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1814,72 +1820,82 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="57">
+      <c r="A63" s="56">
         <v>7</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="59">
+      <c r="C63" s="58">
         <v>44066</v>
       </c>
-      <c r="D63" s="59">
-        <v>44071</v>
-      </c>
-      <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
+      <c r="D63" s="58">
+        <v>44078</v>
+      </c>
+      <c r="E63" s="59"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="13">
+        <v>44066</v>
+      </c>
+      <c r="D64" s="13">
+        <v>44071</v>
+      </c>
       <c r="E64" s="26">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="C65" s="13">
+        <v>44066</v>
+      </c>
+      <c r="D65" s="13">
+        <v>44071</v>
+      </c>
+      <c r="E65" s="26">
+        <v>1</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="A66" s="14"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C67" s="13">
+        <v>44074</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="27"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1888,9 +1904,9 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1899,8 +1915,10 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="27"/>
@@ -1908,8 +1926,10 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="27"/>
@@ -2834,6 +2854,15 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CC599-83F7-4F1C-A88D-790C8B5FC9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8E774-4AA4-4F95-895E-E665BCD1FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,10 +641,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,7 +933,7 @@
   <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="K59" sqref="J59:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,14 +950,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1776,7 +1779,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="9" t="s">
         <v>64</v>
       </c>
@@ -1787,7 +1790,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1801,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1809,7 +1812,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1837,7 +1840,7 @@
       <c r="G63" s="60"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="9" t="s">
         <v>70</v>
       </c>
@@ -1854,7 +1857,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="9" t="s">
         <v>76</v>
       </c>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7_3_12\htdocs\bhhk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8E774-4AA4-4F95-895E-E665BCD1FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438FD7C-6A6D-4046-B999-F88138B011D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Giám định bồi thường</t>
   </si>
   <si>
-    <t>- Màn hình thêm mới đơn bồi thường</t>
-  </si>
-  <si>
     <t>- Lập biên bản giám định</t>
   </si>
   <si>
@@ -271,6 +268,15 @@
   </si>
   <si>
     <t>- Quá trình giải quyết khiếu nại bồi thường</t>
+  </si>
+  <si>
+    <t>- Danh sách hồ sơ bồi thường , Thêm mới đơn bồi thường</t>
+  </si>
+  <si>
+    <t>- Danh sách tổn thất bồi thường, Thêm mới tổn thất</t>
+  </si>
+  <si>
+    <t>- Quá trình xử lí khiếu nại bồi thường</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,11 +650,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="J59:K59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,14 +962,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1779,7 +1791,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="9" t="s">
         <v>64</v>
       </c>
@@ -1790,7 +1802,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1813,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1812,7 +1824,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1842,7 +1854,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="61"/>
       <c r="B64" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C64" s="13">
         <v>44066</v>
@@ -1859,7 +1871,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
       <c r="B65" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="13">
         <v>44066</v>
@@ -1874,32 +1886,42 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="13">
+        <v>44074</v>
+      </c>
+      <c r="D66" s="13">
+        <v>44075</v>
+      </c>
+      <c r="E66" s="26">
+        <v>1</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C67" s="13">
-        <v>44074</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="27"/>
+        <v>44077</v>
+      </c>
+      <c r="D67" s="13">
+        <v>44078</v>
+      </c>
+      <c r="E67" s="26">
+        <v>1</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="A68" s="62"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="27"/>
@@ -1907,10 +1929,8 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A69" s="62"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="27"/>
@@ -1918,10 +1938,8 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="A70" s="62"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="27"/>
@@ -1929,10 +1947,8 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="A71" s="62"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="27"/>
@@ -1940,17 +1956,27 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="51">
+        <v>8</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="65">
+        <v>44081</v>
+      </c>
+      <c r="D72" s="65">
+        <v>44085</v>
+      </c>
       <c r="E72" s="27"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="27"/>
@@ -1958,8 +1984,10 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="27"/>
@@ -1967,8 +1995,10 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="27"/>
@@ -1976,8 +2006,10 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="27"/>
